--- a/medicine/Psychotrope/Maquereau_au_vin_blanc/Maquereau_au_vin_blanc.xlsx
+++ b/medicine/Psychotrope/Maquereau_au_vin_blanc/Maquereau_au_vin_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le maquereau au vin blanc est un mets de la cuisine française. Déjà consommé au milieu du XVIIIe siècle sous le nom de « maquereaux en gras », il est devenu populaire à la fin du XIXe siècle, quand il a été commercialisé sous forme de conserve.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une recette de maquereau au vin blanc — dit maquereau en gras —, est donnée, dès 1750, par François-Alexandre Aubert de La Chesnaye des Bois, elle a très peu changé depuis[1]. Ce fut au cours des années 1880 que ce mets, jusqu'alors préparé en restauration ou en famille, le fut industriellement, à Boulogne-sur-Mer sous forme de filets marinés au vin blanc et stérilisés en boîte de conserve[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une recette de maquereau au vin blanc — dit maquereau en gras —, est donnée, dès 1750, par François-Alexandre Aubert de La Chesnaye des Bois, elle a très peu changé depuis. Ce fut au cours des années 1880 que ce mets, jusqu'alors préparé en restauration ou en famille, le fut industriellement, à Boulogne-sur-Mer sous forme de filets marinés au vin blanc et stérilisés en boîte de conserve.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi toutes les variétés de maquereaux, il est généralement conseillé d'utiliser la lisette. C'est un petit maquereau pêché en Manche, le plus souvent à la ligne, dite mitraillette (ligne à plusieurs hameçons).
-Les lisettes sont découpées en filets, qui sont mis à mariner dans du muscadet, avec des carottes et oignons émincés, des épices, des herbes de Provence et du citron. Puis l'ensemble est rapidement cuit dans une cocotte[2].
+Les lisettes sont découpées en filets, qui sont mis à mariner dans du muscadet, avec des carottes et oignons émincés, des épices, des herbes de Provence et du citron. Puis l'ensemble est rapidement cuit dans une cocotte.
 </t>
         </is>
       </c>
